--- a/documenten/datasets_CG/Partnerdataset_Def (1).xlsx
+++ b/documenten/datasets_CG/Partnerdataset_Def (1).xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GemeenteUtrecht\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BDE459B-90C4-496D-8CA9-44D23A645EFF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="partnerdataset" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="partnerdataset" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,219 +25,226 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
-  <si>
-    <t xml:space="preserve">voornaam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">achternaam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tussenvoegsel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bsn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partner_bsn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datum_verbinding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datum_ontbinding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soort_verbintenis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geboortedatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nationaliteit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">huisnummer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">huisletter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">postcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">woonplaats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emailadres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">telefoonnummer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ondercuratele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinclair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nederlandse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Straathofjesweg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9876 ZZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medemblik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nederland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wreckingball1986@e-mail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0687126534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ross</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kross@e-mail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0612873465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heijden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">van der</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoflaanstraat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234 BB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmeloord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R.vdHeijden@e-mail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0612345678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gavey</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+  <si>
+    <t>voornaam</t>
+  </si>
+  <si>
+    <t>achternaam</t>
+  </si>
+  <si>
+    <t>tussenvoegsel</t>
+  </si>
+  <si>
+    <t>bsn</t>
+  </si>
+  <si>
+    <t>partner_bsn</t>
+  </si>
+  <si>
+    <t>datum_verbinding</t>
+  </si>
+  <si>
+    <t>datum_ontbinding</t>
+  </si>
+  <si>
+    <t>soort_verbintenis</t>
+  </si>
+  <si>
+    <t>geboortedatum</t>
+  </si>
+  <si>
+    <t>nationaliteit</t>
+  </si>
+  <si>
+    <t>straat</t>
+  </si>
+  <si>
+    <t>huisnummer</t>
+  </si>
+  <si>
+    <t>huisletter</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>woonplaats</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>emailadres</t>
+  </si>
+  <si>
+    <t>telefoonnummer</t>
+  </si>
+  <si>
+    <t>ondercuratele</t>
+  </si>
+  <si>
+    <t>Miley</t>
+  </si>
+  <si>
+    <t>Sinclair</t>
+  </si>
+  <si>
+    <t>Nederlandse</t>
+  </si>
+  <si>
+    <t>Straathofjesweg</t>
+  </si>
+  <si>
+    <t>9876 ZZ</t>
+  </si>
+  <si>
+    <t>Medemblik</t>
+  </si>
+  <si>
+    <t>Nederland</t>
+  </si>
+  <si>
+    <t>Wreckingball1986@e-mail.com</t>
+  </si>
+  <si>
+    <t>0687126534</t>
+  </si>
+  <si>
+    <t>Nee</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Kross@e-mail.com</t>
+  </si>
+  <si>
+    <t>0612873465</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Renata</t>
+  </si>
+  <si>
+    <t>Heijden</t>
+  </si>
+  <si>
+    <t>van der</t>
+  </si>
+  <si>
+    <t>Hoflaanstraat</t>
+  </si>
+  <si>
+    <t>1234 BB</t>
+  </si>
+  <si>
+    <t>Emmeloord</t>
+  </si>
+  <si>
+    <t>R.vdHeijden@e-mail.com</t>
+  </si>
+  <si>
+    <t>0612345678</t>
+  </si>
+  <si>
+    <t>Clinton</t>
+  </si>
+  <si>
+    <t>Gavey</t>
   </si>
   <si>
     <t xml:space="preserve">Nederlandse </t>
   </si>
   <si>
-    <t xml:space="preserve">CGy@e-mail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0687654321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timmers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pleinmarktlaan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4321 AA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloemendaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M.Timmers@e-mail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0681726354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annemarijn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helvert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">van</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000009878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123456789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grote kerkstraat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2314 CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Den Haag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AvH@e-mail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0645362718</t>
+    <t>CGy@e-mail.com</t>
+  </si>
+  <si>
+    <t>0687654321</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Timmers</t>
+  </si>
+  <si>
+    <t>Pleinmarktlaan</t>
+  </si>
+  <si>
+    <t>4321 AA</t>
+  </si>
+  <si>
+    <t>Bloemendaal</t>
+  </si>
+  <si>
+    <t>M.Timmers@e-mail.com</t>
+  </si>
+  <si>
+    <t>0681726354</t>
+  </si>
+  <si>
+    <t>Annemarijn</t>
+  </si>
+  <si>
+    <t>Helvert</t>
+  </si>
+  <si>
+    <t>van</t>
+  </si>
+  <si>
+    <t>000009878</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Grote kerkstraat</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2314 CC</t>
+  </si>
+  <si>
+    <t>Den Haag</t>
+  </si>
+  <si>
+    <t>AvH@e-mail.com</t>
+  </si>
+  <si>
+    <t>0645362718</t>
+  </si>
+  <si>
+    <t>Minder</t>
+  </si>
+  <si>
+    <t>Jarige</t>
+  </si>
+  <si>
+    <t>000009873</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="M/D/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -242,28 +254,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF181717"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -293,7 +290,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -301,93 +298,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u/>
         <color rgb="FF0563C1"/>
-        <u val="single"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <color rgb="FF0563C1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -446,43 +410,351 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:S7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="27.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.53"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" customWidth="1"/>
+    <col min="17" max="17" width="27.28515625" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" customWidth="1"/>
+    <col min="20" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -549,18 +821,18 @@
         <v>20</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>999999928</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>999999886</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="3">
         <v>42156</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="3">
         <v>31610</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -569,7 +841,7 @@
       <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="L2" s="1">
         <v>60</v>
       </c>
       <c r="M2" s="1"/>
@@ -592,7 +864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -600,20 +872,20 @@
         <v>30</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>999999886</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2">
         <v>999999928</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="3">
         <v>42156</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="3">
         <v>33142</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -622,7 +894,7 @@
       <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3" s="1">
         <v>60</v>
       </c>
       <c r="M3" s="1"/>
@@ -645,7 +917,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -655,14 +927,14 @@
       <c r="C4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>999999230</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="3">
         <v>30057</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -671,7 +943,7 @@
       <c r="K4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="L4" s="1">
         <v>1</v>
       </c>
       <c r="M4" s="1"/>
@@ -694,7 +966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -702,20 +974,20 @@
         <v>44</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>999997865</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>999999837</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="6">
         <v>36424</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="3">
         <v>37155</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="3">
         <v>28453</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -724,7 +996,7 @@
       <c r="K5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="L5" s="1">
         <v>1</v>
       </c>
       <c r="M5" s="1"/>
@@ -747,7 +1019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -755,22 +1027,22 @@
         <v>49</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>999999837</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2">
         <v>999997865</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="6">
         <v>36424</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="3">
         <v>37155</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="3">
         <v>18691</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -779,7 +1051,7 @@
       <c r="K6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="L6" s="1">
         <v>5</v>
       </c>
       <c r="M6" s="1"/>
@@ -802,7 +1074,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -819,13 +1091,13 @@
         <v>59</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="3">
         <v>39509</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="3">
         <v>21217</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -834,7 +1106,7 @@
       <c r="K7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="1" t="n">
+      <c r="L7" s="1">
         <v>10</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -856,25 +1128,74 @@
         <v>66</v>
       </c>
       <c r="S7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="3">
+        <v>42036</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="1">
+        <v>10</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ref!&gt;0</formula>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>#REF!&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E8">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="Q4" r:id="rId1" display="R.vdHeijden@e-mail.com"/>
-    <hyperlink ref="Q5" r:id="rId2" display="CGy@e-mail.com"/>
+    <hyperlink ref="Q4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>